--- a/Database(data).xlsx
+++ b/Database(data).xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fei/Documents/Advanced-Database-Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -370,24 +386,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -396,6 +430,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -410,59 +445,322 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="26.29"/>
-    <col customWidth="1" min="3" max="3" width="19.71"/>
-    <col customWidth="1" min="5" max="5" width="31.71"/>
-    <col customWidth="1" min="9" max="9" width="29.86"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -477,9 +775,9 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -488,12 +786,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -502,12 +800,12 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -516,12 +814,12 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -530,12 +828,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -544,12 +842,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -558,12 +856,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -572,12 +870,12 @@
         <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -586,12 +884,12 @@
         <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -600,12 +898,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -614,18 +912,24 @@
         <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,15 +952,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>25</v>
@@ -665,21 +969,21 @@
         <v>26</v>
       </c>
       <c r="F17" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2">
-        <v>60000.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>25</v>
@@ -688,21 +992,21 @@
         <v>28</v>
       </c>
       <c r="F18" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2">
-        <v>120000.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>25</v>
@@ -711,21 +1015,21 @@
         <v>28</v>
       </c>
       <c r="F19" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="G19" s="2">
-        <v>50000.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
@@ -734,21 +1038,21 @@
         <v>26</v>
       </c>
       <c r="F20" s="2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="G20" s="2">
-        <v>250000.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -757,18 +1061,22 @@
         <v>28</v>
       </c>
       <c r="F21" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2">
-        <v>60000.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -785,97 +1093,105 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="2">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="2">
-        <v>210000.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="2">
-        <v>3000000.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2">
-        <v>2500000.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="2">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -904,9 +1220,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>52</v>
@@ -929,11 +1245,11 @@
       <c r="H35" s="2">
         <v>11.95</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>57</v>
@@ -956,10 +1272,11 @@
       <c r="H36" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>60</v>
@@ -968,7 +1285,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="2">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>62</v>
@@ -986,9 +1303,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>66</v>
@@ -1012,9 +1329,9 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>71</v>
@@ -1038,9 +1355,9 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>75</v>
@@ -1064,9 +1381,9 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>79</v>
@@ -1075,7 +1392,7 @@
         <v>76</v>
       </c>
       <c r="D41" s="2">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>80</v>
@@ -1091,9 +1408,9 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>82</v>
@@ -1117,9 +1434,9 @@
         <v>12.11</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>86</v>
@@ -1142,13 +1459,13 @@
       <c r="H43" s="2">
         <v>21.23</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>92</v>
@@ -1171,13 +1488,20 @@
       <c r="H44" s="2">
         <v>16.64</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
@@ -1200,679 +1524,679 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2">
         <v>22.93</v>
       </c>
       <c r="E49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4">
-        <v>42781.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2">
         <v>21.03</v>
       </c>
-      <c r="E50" s="2">
-        <v>2.0</v>
+      <c r="E50" s="7">
+        <v>1</v>
       </c>
       <c r="F50" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4">
-        <v>42781.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B51" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C51" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2">
         <v>5.03</v>
       </c>
       <c r="E51" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="4">
-        <v>42784.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>42784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B52" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2">
         <v>5.03</v>
       </c>
       <c r="E52" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F52" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="4">
-        <v>42785.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>42785</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C53" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2">
         <v>23.48</v>
       </c>
       <c r="E53" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F53" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4">
-        <v>42788.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B54" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2">
         <v>17.09</v>
       </c>
       <c r="E54" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4">
-        <v>42790.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
         <v>11.35</v>
       </c>
       <c r="E55" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F55" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="4">
-        <v>42790.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C56" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2">
         <v>8.07</v>
       </c>
       <c r="E56" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="4">
-        <v>42790.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E57" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F57" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4">
-        <v>42790.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2">
         <v>21.03</v>
       </c>
       <c r="E58" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F58" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G58" s="4">
-        <v>42794.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E59" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F59" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4">
-        <v>42794.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D60" s="2">
         <v>23.48</v>
       </c>
       <c r="E60" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F60" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="4">
-        <v>42794.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B61" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2">
         <v>22.93</v>
       </c>
       <c r="E61" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F61" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="4">
-        <v>42794.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D62" s="2">
         <v>5.03</v>
       </c>
       <c r="E62" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4">
-        <v>42794.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C63" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2">
         <v>20.48</v>
       </c>
       <c r="E63" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F63" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G63" s="4">
-        <v>42794.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2">
         <v>5.03</v>
       </c>
       <c r="E64" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F64" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="4">
-        <v>42795.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2">
         <v>22.93</v>
       </c>
       <c r="E65" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4">
-        <v>42797.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B66" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2">
         <v>22.93</v>
       </c>
       <c r="E66" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F66" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="4">
-        <v>42799.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B67" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2">
         <v>22.93</v>
       </c>
       <c r="E67" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="4">
-        <v>42800.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2">
         <v>17.09</v>
       </c>
       <c r="E68" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F68" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G68" s="4">
-        <v>42800.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C69" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2">
         <v>8.07</v>
       </c>
       <c r="E69" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G69" s="4">
-        <v>42801.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>42801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B70" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2">
         <v>11.35</v>
       </c>
       <c r="E70" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G70" s="4">
-        <v>42807.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B71" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C71" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2">
         <v>8.07</v>
       </c>
       <c r="E71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G71" s="4">
-        <v>42810.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B72" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E72" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G72" s="4">
-        <v>42811.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B73" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C73" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E73" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4">
-        <v>42812.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B74" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C74" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D74" s="2">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E74" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F74" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G74" s="4">
-        <v>42812.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B75" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C75" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2">
         <v>25.31</v>
       </c>
       <c r="E75" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G75" s="4">
-        <v>42812.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B76" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D76" s="2">
         <v>5.03</v>
       </c>
       <c r="E76" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F76" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="4">
-        <v>42812.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B77" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C77" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E77" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F77" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G77" s="4">
-        <v>42814.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
@@ -1880,44 +2204,44 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
@@ -1934,9 +2258,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
@@ -1948,12 +2272,12 @@
         <v>106</v>
       </c>
       <c r="E90" s="2">
-        <v>15213.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>15213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>114</v>
@@ -1965,12 +2289,12 @@
         <v>106</v>
       </c>
       <c r="E91" s="2">
-        <v>15213.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>15213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>115</v>
@@ -1982,12 +2306,12 @@
         <v>106</v>
       </c>
       <c r="E92" s="2">
-        <v>15001.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>116</v>
@@ -1999,7 +2323,7 @@
         <v>105</v>
       </c>
       <c r="E93" s="2">
-        <v>10006.0</v>
+        <v>10006</v>
       </c>
     </row>
   </sheetData>
@@ -2012,6 +2336,7 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A24:E24"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database(data).xlsx
+++ b/Database(data).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
   <si>
     <t>customer</t>
   </si>
@@ -381,6 +381,10 @@
   </si>
   <si>
     <t>New York City</t>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -447,19 +451,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -752,12 +769,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -919,15 +936,15 @@
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1068,13 +1085,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1179,17 +1196,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
@@ -1245,7 +1262,7 @@
       <c r="H35" s="2">
         <v>11.95</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
@@ -1272,7 +1289,7 @@
       <c r="H36" s="2">
         <v>3.8</v>
       </c>
-      <c r="I36" s="6"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
@@ -1459,7 +1476,7 @@
       <c r="H43" s="2">
         <v>21.23</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1488,18 +1505,18 @@
       <c r="H44" s="2">
         <v>16.64</v>
       </c>
-      <c r="I44" s="6"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1523,8 +1540,11 @@
       <c r="G48" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H48" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -1546,8 +1566,11 @@
       <c r="G49" s="4">
         <v>42781</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1560,7 +1583,7 @@
       <c r="D50" s="2">
         <v>21.03</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="2">
@@ -1569,8 +1592,11 @@
       <c r="G50" s="4">
         <v>42781</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -1592,8 +1618,11 @@
       <c r="G51" s="4">
         <v>42784</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -1615,8 +1644,11 @@
       <c r="G52" s="4">
         <v>42785</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -1638,8 +1670,11 @@
       <c r="G53" s="4">
         <v>42788</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -1661,8 +1696,11 @@
       <c r="G54" s="4">
         <v>42790</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H54" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>6</v>
       </c>
@@ -1684,8 +1722,11 @@
       <c r="G55" s="4">
         <v>42790</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H55" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>6</v>
       </c>
@@ -1707,8 +1748,11 @@
       <c r="G56" s="4">
         <v>42790</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H56" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>6</v>
       </c>
@@ -1730,8 +1774,11 @@
       <c r="G57" s="4">
         <v>42790</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H57" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>7</v>
       </c>
@@ -1753,8 +1800,11 @@
       <c r="G58" s="4">
         <v>42794</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H58" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>8</v>
       </c>
@@ -1776,8 +1826,11 @@
       <c r="G59" s="4">
         <v>42794</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H59" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>8</v>
       </c>
@@ -1799,8 +1852,11 @@
       <c r="G60" s="4">
         <v>42794</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H60" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>9</v>
       </c>
@@ -1822,8 +1878,11 @@
       <c r="G61" s="4">
         <v>42794</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H61" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>9</v>
       </c>
@@ -1845,8 +1904,11 @@
       <c r="G62" s="4">
         <v>42794</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H62" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>9</v>
       </c>
@@ -1868,8 +1930,11 @@
       <c r="G63" s="4">
         <v>42794</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H63" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>10</v>
       </c>
@@ -1891,8 +1956,11 @@
       <c r="G64" s="4">
         <v>42795</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H64" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>11</v>
       </c>
@@ -1914,8 +1982,11 @@
       <c r="G65" s="4">
         <v>42797</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H65" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>12</v>
       </c>
@@ -1937,8 +2008,11 @@
       <c r="G66" s="4">
         <v>42799</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H66" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>13</v>
       </c>
@@ -1960,8 +2034,11 @@
       <c r="G67" s="4">
         <v>42800</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H67" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>13</v>
       </c>
@@ -1983,8 +2060,11 @@
       <c r="G68" s="4">
         <v>42800</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H68" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>14</v>
       </c>
@@ -2006,8 +2086,11 @@
       <c r="G69" s="4">
         <v>42801</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H69" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>15</v>
       </c>
@@ -2029,8 +2112,11 @@
       <c r="G70" s="4">
         <v>42807</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H70" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>16</v>
       </c>
@@ -2052,8 +2138,11 @@
       <c r="G71" s="4">
         <v>42810</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H71" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>17</v>
       </c>
@@ -2075,8 +2164,11 @@
       <c r="G72" s="4">
         <v>42811</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H72" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>18</v>
       </c>
@@ -2098,8 +2190,11 @@
       <c r="G73" s="4">
         <v>42812</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H73" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>18</v>
       </c>
@@ -2121,8 +2216,11 @@
       <c r="G74" s="4">
         <v>42812</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H74" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>18</v>
       </c>
@@ -2144,8 +2242,11 @@
       <c r="G75" s="4">
         <v>42812</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H75" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>19</v>
       </c>
@@ -2167,8 +2268,11 @@
       <c r="G76" s="4">
         <v>42812</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H76" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>20</v>
       </c>
@@ -2190,8 +2294,11 @@
       <c r="G77" s="4">
         <v>42814</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H77" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>103</v>
       </c>

--- a/Database(data).xlsx
+++ b/Database(data).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fei/Documents/Advanced-Database-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Downloads\git adv-db\Advanced-Database-Project-master\Advanced-Database-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
   <si>
     <t>customer</t>
   </si>
@@ -384,17 +384,221 @@
   </si>
   <si>
     <t>week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/19/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/20/2017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/20/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/23/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/24/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/2/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/2/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/14/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/14/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/15/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/18/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/20/2017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/20/2017</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,6 +616,11 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -466,26 +675,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -754,30 +974,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.6328125" customWidth="1"/>
+    <col min="9" max="9" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -792,7 +1013,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -806,7 +1027,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -820,7 +1041,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -834,7 +1055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -848,7 +1069,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -862,7 +1083,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -876,7 +1097,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -890,7 +1111,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -904,7 +1125,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -918,7 +1139,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -932,21 +1153,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -969,7 +1190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -992,7 +1213,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1015,7 +1236,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -1038,7 +1259,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -1061,7 +1282,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -1084,16 +1305,16 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -1127,7 +1348,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7</v>
       </c>
@@ -1144,7 +1365,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -1161,7 +1382,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -1178,7 +1399,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10</v>
       </c>
@@ -1195,20 +1416,20 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1262,9 +1483,9 @@
       <c r="H35" s="2">
         <v>11.95</v>
       </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -1289,9 +1510,9 @@
       <c r="H36" s="2">
         <v>3.8</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -1320,7 +1541,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -1346,7 +1567,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -1372,7 +1593,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -1398,7 +1619,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -1425,7 +1646,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>8</v>
       </c>
@@ -1451,7 +1672,7 @@
         <v>12.11</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>9</v>
       </c>
@@ -1476,11 +1697,11 @@
       <c r="H43" s="2">
         <v>21.23</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>10</v>
       </c>
@@ -1505,20 +1726,20 @@
       <c r="H44" s="2">
         <v>16.64</v>
       </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
@@ -1540,11 +1761,14 @@
       <c r="G48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="I48" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -1566,11 +1790,11 @@
       <c r="G49" s="4">
         <v>42781</v>
       </c>
-      <c r="H49" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1581,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2">
-        <v>21.03</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
@@ -1592,11 +1816,11 @@
       <c r="G50" s="4">
         <v>42781</v>
       </c>
-      <c r="H50" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -1618,74 +1842,74 @@
       <c r="G51" s="4">
         <v>42784</v>
       </c>
-      <c r="H51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3">
         <v>5.03</v>
       </c>
-      <c r="E52" s="2">
-        <v>6</v>
-      </c>
-      <c r="F52" s="2">
-        <v>3</v>
-      </c>
-      <c r="G52" s="4">
-        <v>42785</v>
-      </c>
-      <c r="H52" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="E52" s="3">
         <v>4</v>
       </c>
-      <c r="B53" s="2">
-        <v>9</v>
-      </c>
-      <c r="C53" s="2">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2">
-        <v>23.48</v>
-      </c>
-      <c r="E53" s="2">
-        <v>6</v>
-      </c>
-      <c r="F53" s="2">
-        <v>3</v>
-      </c>
-      <c r="G53" s="4">
-        <v>42788</v>
-      </c>
-      <c r="H53" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5.03</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>5</v>
       </c>
       <c r="B54" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
       </c>
       <c r="D54" s="2">
-        <v>17.09</v>
+        <v>5.03</v>
       </c>
       <c r="E54" s="2">
         <v>6</v>
@@ -1693,743 +1917,1029 @@
       <c r="F54" s="2">
         <v>3</v>
       </c>
-      <c r="G54" s="4">
-        <v>42790</v>
-      </c>
-      <c r="H54" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="G54" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>6</v>
       </c>
       <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>23.48</v>
+      </c>
+      <c r="E55" s="2">
+        <v>6</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3</v>
+      </c>
+      <c r="G55" s="4">
+        <v>42788</v>
+      </c>
+      <c r="H55" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6</v>
+      </c>
+      <c r="F56" s="3">
+        <v>3</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3">
         <v>5</v>
       </c>
-      <c r="C55" s="2">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="D57" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>9</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
         <v>11.35</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E58" s="2">
         <v>7</v>
       </c>
-      <c r="F55" s="2">
-        <v>3</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="F58" s="2">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4">
         <v>42790</v>
       </c>
-      <c r="H55" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="H58" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2">
         <v>6</v>
       </c>
-      <c r="B56" s="2">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2">
         <v>8.07</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E59" s="2">
         <v>7</v>
       </c>
-      <c r="F56" s="2">
-        <v>3</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4">
         <v>42790</v>
       </c>
-      <c r="H56" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
-        <v>6</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="H59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2">
         <v>7</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E60" s="2">
         <v>7</v>
       </c>
-      <c r="F57" s="2">
-        <v>3</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F60" s="2">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4">
         <v>42790</v>
       </c>
-      <c r="H57" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
-        <v>7</v>
-      </c>
-      <c r="B58" s="2">
-        <v>3</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>21.03</v>
-      </c>
-      <c r="E58" s="2">
-        <v>8</v>
-      </c>
-      <c r="F58" s="2">
-        <v>3</v>
-      </c>
-      <c r="G58" s="4">
-        <v>42794</v>
-      </c>
-      <c r="H58" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
-        <v>8</v>
-      </c>
-      <c r="B59" s="2">
-        <v>3</v>
-      </c>
-      <c r="C59" s="2">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="H60" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
         <v>16.059999999999999</v>
-      </c>
-      <c r="E59" s="2">
-        <v>6</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4">
-        <v>42794</v>
-      </c>
-      <c r="H59" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2">
-        <v>23.48</v>
-      </c>
-      <c r="E60" s="2">
-        <v>6</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>42794</v>
-      </c>
-      <c r="H60" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>9</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>22.93</v>
       </c>
       <c r="E61" s="2">
         <v>8</v>
       </c>
       <c r="F61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="4">
         <v>42794</v>
       </c>
-      <c r="H61" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="H61" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2">
         <v>2</v>
       </c>
       <c r="D62" s="2">
-        <v>5.03</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E62" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4">
         <v>42794</v>
       </c>
-      <c r="H62" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="H62" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
+        <v>11</v>
+      </c>
+      <c r="B63" s="2">
         <v>9</v>
       </c>
-      <c r="B63" s="2">
-        <v>10</v>
-      </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="2">
-        <v>20.48</v>
+        <v>23.48</v>
       </c>
       <c r="E63" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4">
         <v>42794</v>
       </c>
-      <c r="H63" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="H63" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2">
+        <v>22.93</v>
+      </c>
+      <c r="E64" s="2">
+        <v>8</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>42794</v>
+      </c>
+      <c r="H64" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>12</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
         <v>5.03</v>
       </c>
-      <c r="E64" s="2">
-        <v>6</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4">
-        <v>42795</v>
-      </c>
-      <c r="H64" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
-        <v>11</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <v>22.93</v>
-      </c>
       <c r="E65" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="4">
-        <v>42797</v>
-      </c>
-      <c r="H65" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>42794</v>
+      </c>
+      <c r="H65" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>12</v>
       </c>
       <c r="B66" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" s="2">
-        <v>22.93</v>
+        <v>20.48</v>
       </c>
       <c r="E66" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="4">
-        <v>42799</v>
-      </c>
-      <c r="H66" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>42794</v>
+      </c>
+      <c r="H66" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>13</v>
       </c>
       <c r="B67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="2">
-        <v>22.93</v>
+        <v>5.03</v>
       </c>
       <c r="E67" s="2">
         <v>6</v>
       </c>
       <c r="F67" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67" s="4">
+        <v>42795</v>
+      </c>
+      <c r="H67" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>11.35</v>
+      </c>
+      <c r="E68" s="3">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3">
+        <v>4</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>15</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3">
+        <v>11.35</v>
+      </c>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>16</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3">
+        <v>6</v>
+      </c>
+      <c r="D70" s="3">
+        <v>11.35</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H70" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>17</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3">
+        <v>11.35</v>
+      </c>
+      <c r="E71" s="3">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3">
+        <v>4</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>18</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>22.93</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4">
+        <v>42797</v>
+      </c>
+      <c r="H72" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>19</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>22.93</v>
+      </c>
+      <c r="E73" s="2">
+        <v>5</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>42799</v>
+      </c>
+      <c r="H73" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>20</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>22.93</v>
+      </c>
+      <c r="E74" s="2">
+        <v>6</v>
+      </c>
+      <c r="F74" s="2">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4">
         <v>42800</v>
       </c>
-      <c r="H67" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
-        <v>13</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="H74" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>20</v>
+      </c>
+      <c r="B75" s="2">
         <v>8</v>
       </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
         <v>17.09</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E75" s="2">
         <v>6</v>
       </c>
-      <c r="F68" s="2">
-        <v>3</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="F75" s="2">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4">
         <v>42800</v>
       </c>
-      <c r="H68" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
-        <v>14</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="H75" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>21</v>
+      </c>
+      <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
         <v>8.07</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E76" s="2">
         <v>4</v>
       </c>
-      <c r="F69" s="2">
-        <v>3</v>
-      </c>
-      <c r="G69" s="4">
+      <c r="F76" s="2">
+        <v>3</v>
+      </c>
+      <c r="G76" s="4">
         <v>42801</v>
       </c>
-      <c r="H69" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
-        <v>15</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="H76" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>22</v>
+      </c>
+      <c r="B77" s="2">
         <v>5</v>
       </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
         <v>11.35</v>
       </c>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
         <v>4</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G77" s="4">
         <v>42807</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H77" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
-        <v>16</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="78" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>23</v>
+      </c>
+      <c r="B78" s="3">
         <v>6</v>
       </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C78" s="3">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3">
         <v>8.07</v>
       </c>
-      <c r="E71" s="2">
-        <v>3</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="E78" s="3">
+        <v>5</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H78" s="8">
         <v>4</v>
       </c>
-      <c r="G71" s="4">
+    </row>
+    <row r="79" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>24</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3</v>
+      </c>
+      <c r="D79" s="3">
+        <v>8.07</v>
+      </c>
+      <c r="E79" s="3">
+        <v>5</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H79" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>25</v>
+      </c>
+      <c r="B80" s="3">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>8.07</v>
+      </c>
+      <c r="E80" s="3">
+        <v>5</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>26</v>
+      </c>
+      <c r="B81" s="2">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2">
+        <v>4</v>
+      </c>
+      <c r="G81" s="10">
         <v>42810</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H81" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
-        <v>17</v>
-      </c>
-      <c r="B72" s="2">
-        <v>3</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
+    <row r="82" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>27</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
         <v>4</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G82" s="10">
         <v>42811</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H82" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
-        <v>18</v>
-      </c>
-      <c r="B73" s="2">
-        <v>3</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
+    <row r="83" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>28</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E83" s="2">
         <v>10</v>
       </c>
-      <c r="F73" s="2">
-        <v>3</v>
-      </c>
-      <c r="G73" s="4">
+      <c r="F83" s="2">
+        <v>3</v>
+      </c>
+      <c r="G83" s="10">
         <v>42812</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H83" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
-        <v>18</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="84" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>28</v>
+      </c>
+      <c r="B84" s="2">
         <v>7</v>
       </c>
-      <c r="C74" s="2">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E84" s="2">
         <v>10</v>
       </c>
-      <c r="F74" s="2">
-        <v>3</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="F84" s="2">
+        <v>3</v>
+      </c>
+      <c r="G84" s="10">
         <v>42812</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H84" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
-        <v>18</v>
-      </c>
-      <c r="B75" s="2">
-        <v>10</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
-        <v>25.31</v>
-      </c>
-      <c r="E75" s="2">
-        <v>10</v>
-      </c>
-      <c r="F75" s="2">
+    <row r="85" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>29</v>
+      </c>
+      <c r="B85" s="2">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>23.48</v>
+      </c>
+      <c r="E85" s="2">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2">
         <v>4</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G85" s="10">
         <v>42812</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H85" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
-        <v>19</v>
-      </c>
-      <c r="B76" s="2">
-        <v>2</v>
-      </c>
-      <c r="C76" s="2">
-        <v>2</v>
-      </c>
-      <c r="D76" s="2">
-        <v>5.03</v>
-      </c>
-      <c r="E76" s="2">
-        <v>6</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1</v>
-      </c>
-      <c r="G76" s="4">
-        <v>42812</v>
-      </c>
-      <c r="H76" s="9">
+    <row r="86" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>30</v>
+      </c>
+      <c r="B86" s="3">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2</v>
+      </c>
+      <c r="D86" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="E86" s="3">
+        <v>8</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
-        <v>20</v>
-      </c>
-      <c r="B77" s="2">
-        <v>7</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E77" s="2">
+    <row r="87" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>31</v>
+      </c>
+      <c r="B87" s="3">
         <v>9</v>
       </c>
-      <c r="F77" s="2">
-        <v>2</v>
-      </c>
-      <c r="G77" s="4">
-        <v>42814</v>
-      </c>
-      <c r="H77" s="9">
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+      <c r="D87" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8</v>
+      </c>
+      <c r="F87" s="3">
+        <v>4</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H87" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
+    <row r="88" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>32</v>
+      </c>
+      <c r="B88" s="3">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5</v>
+      </c>
+      <c r="D88" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="E88" s="3">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="92" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="2">
-        <v>1</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="93" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="2">
-        <v>2</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="94" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="2">
-        <v>3</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="95" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="2">
+    <row r="96" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>4</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
+    <row r="99" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="2" t="s">
+    <row r="100" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
-        <v>1</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="101" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E101" s="2">
         <v>15213</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
-        <v>2</v>
-      </c>
-      <c r="B91" s="2" t="s">
+    <row r="102" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E102" s="2">
         <v>15213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="103" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E103" s="2">
         <v>15001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
+    <row r="104" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E104" s="2">
         <v>10006</v>
       </c>
     </row>
@@ -2445,5 +2955,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>